--- a/data/trans_bre/PCS12_SP_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/PCS12_SP_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,77%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,61; 17,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,0; 13,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,75; 15,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,6; 17,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,86; 29,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,28; 20,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,53; 27,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,89; 26,74</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,17; 15,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,28; 9,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 7,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,92; 14,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,05; 46,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,32; 27,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,04; 23,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 35,03</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,55%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,84; 17,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 14,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 13,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; 3,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,88; 58,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,84; 55,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,04; 59,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,88; 8,76</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,36%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,04; 16,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,76; 12,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,33; 11,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,92; 12,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,23; 41,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,32; 30,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,6; 30,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,75; 26,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PCS12_SP_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,03</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>17,57%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,6; 17,1</t>
+          <t>7,46; 17,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,89; 26,74</t>
+          <t>10,45; 26,72</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 14,73</t>
+          <t>-14,13; 14,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 35,03</t>
+          <t>-26,23; 32,58</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,55%</t>
+          <t>-3,88%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 3,39</t>
+          <t>-6,86; 3,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 8,76</t>
+          <t>-15,32; 10,14</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>9,57%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 12,24</t>
+          <t>-5,9; 12,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 26,73</t>
+          <t>-11,82; 26,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PCS12_SP_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,61; 17,3</t>
+          <t>9,72; 17,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 13,1</t>
+          <t>4,95; 13,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 15,88</t>
+          <t>7,14; 16,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 17,2</t>
+          <t>7,29; 16,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,86; 29,17</t>
+          <t>14,88; 29,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,28; 20,93</t>
+          <t>7,31; 21,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,53; 27,03</t>
+          <t>10,67; 27,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,45; 26,72</t>
+          <t>10,15; 25,39</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,17; 15,01</t>
+          <t>8,17; 14,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,82</t>
+          <t>3,59; 9,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,67</t>
+          <t>1,72; 7,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 14,44</t>
+          <t>-13,17; 14,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,05; 46,66</t>
+          <t>22,89; 46,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,32; 27,86</t>
+          <t>9,55; 27,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 23,19</t>
+          <t>4,66; 23,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 32,58</t>
+          <t>-23,98; 34,16</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 17,49</t>
+          <t>5,43; 17,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 14,43</t>
+          <t>1,54; 14,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 13,23</t>
+          <t>2,74; 13,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 3,95</t>
+          <t>-6,63; 3,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 58,09</t>
+          <t>14,56; 61,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,84; 55,82</t>
+          <t>3,33; 54,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 59,03</t>
+          <t>9,44; 58,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 10,14</t>
+          <t>-14,66; 9,09</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 16,95</t>
+          <t>11,98; 16,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 12,79</t>
+          <t>7,88; 12,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 11,39</t>
+          <t>6,09; 11,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 12,71</t>
+          <t>-6,46; 11,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,23; 41,08</t>
+          <t>27,35; 40,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,32; 30,11</t>
+          <t>17,31; 29,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 30,12</t>
+          <t>15,04; 29,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 26,38</t>
+          <t>-11,82; 24,25</t>
         </is>
       </c>
     </row>
